--- a/tool/xres/test.xlsx
+++ b/tool/xres/test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC7C973-C891-2F4B-8441-92CC69F60102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1F029-B9FD-C347-A8EE-CF75F769D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正常" sheetId="1" r:id="rId1"/>
@@ -235,10 +235,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -514,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -687,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9B7350-2E45-E942-9BCE-ABD2DE8F0B40}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -769,6 +765,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/tool/xres/test.xlsx
+++ b/tool/xres/test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C1F029-B9FD-C347-A8EE-CF75F769D577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FC87C8-D060-8E46-A621-87D29341ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="正常" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>千万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa,xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -592,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>32</v>
